--- a/file/data-AirlineCompany/航空公司信息.xlsx
+++ b/file/data-AirlineCompany/航空公司信息.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\ReBytecode\航空公司二字码转三字码\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\sadness96.github.io\file\data-AirlineCompany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E5B4FE-E1D6-479A-9A37-4C8754C210F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5075" uniqueCount="4051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5085" uniqueCount="4058">
   <si>
     <t>OKA</t>
   </si>
@@ -12372,11 +12371,32 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>顺丰航空有限公司</t>
+  </si>
+  <si>
+    <t>SHUN FENG</t>
+  </si>
+  <si>
+    <t>HYT</t>
+  </si>
+  <si>
+    <t>杭州圆通货运航空有限公司</t>
+  </si>
+  <si>
+    <t>QUICK AIR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12477,7 +12497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12504,6 +12524,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12785,11 +12814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1019"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30094,14 +30123,48 @@
         <v>3888</v>
       </c>
     </row>
+    <row r="1020" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="11" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B1020" s="11" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C1020" s="11" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D1020" s="11" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E1020" s="11" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B1021" s="10" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1021" s="12" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D1021" s="10" t="s">
+        <v>4057</v>
+      </c>
+      <c r="E1021" s="10" t="s">
+        <v>3888</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=iataasc" xr:uid="{B058AB32-2613-49A0-9A15-632C6F316312}"/>
-    <hyperlink ref="B1" r:id="rId2" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=icaoasc" xr:uid="{D709F62C-9210-49DA-A264-B699C1AE922A}"/>
-    <hyperlink ref="C1" r:id="rId3" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=airlinedesc" xr:uid="{6FE53C87-9CC2-4874-89BE-221BA1A3B810}"/>
-    <hyperlink ref="D1" r:id="rId4" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=callsignasc" xr:uid="{F1F0DE0C-6A35-4898-871B-75E5D47D1C16}"/>
-    <hyperlink ref="E1" r:id="rId5" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=countryasc" xr:uid="{3A49DF94-F605-4B8A-AD2C-BFD2E61751E3}"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=iataasc"/>
+    <hyperlink ref="B1" r:id="rId2" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=icaoasc"/>
+    <hyperlink ref="C1" r:id="rId3" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=airlinedesc"/>
+    <hyperlink ref="D1" r:id="rId4" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=callsignasc"/>
+    <hyperlink ref="E1" r:id="rId5" display="http://www.flugzeuginfo.net/table_airlinecodes_airline_en.php?sort=countryasc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
